--- a/Figure4/Fig4b_pregnancy_chow_bar.xlsx
+++ b/Figure4/Fig4b_pregnancy_chow_bar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murrell\OneDrive - Washington University in St. Louis\Documents\Github\Ghrelinpaper\Murrell2025\Figure4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC400991-4A9C-424B-A70C-3FFA615FACF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737CA3E-9A7B-4A25-9F0A-C550CF2B9862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31410" yWindow="1230" windowWidth="24615" windowHeight="12660" xr2:uid="{42D77F62-15CB-4518-98A0-00B108C64CEB}"/>
+    <workbookView xWindow="32700" yWindow="435" windowWidth="23280" windowHeight="16110" xr2:uid="{42D77F62-15CB-4518-98A0-00B108C64CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>anticipitory</t>
-  </si>
-  <si>
-    <t>chow</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>P15_mouse8</t>
+  </si>
+  <si>
+    <t>Anticipatory</t>
+  </si>
+  <si>
+    <t>Chow</t>
   </si>
 </sst>
 </file>
@@ -502,86 +502,86 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Y1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>25</v>
-      </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>-1.73364355</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>-1.78983</v>
